--- a/laredo/series_temporais/vagoville.xlsx
+++ b/laredo/series_temporais/vagoville.xlsx
@@ -252,8 +252,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -484,18 +484,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4017,9 +4017,9 @@
             <c:numRef>
               <c:f>'vagoville (17)'!$E$6:$E$29</c:f>
               <c:numCache>
-                <c:formatCode>#.##00</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0" formatCode="#,#00">
+                <c:pt idx="0" formatCode="0.0">
                   <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -17671,7 +17671,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18274,7 +18274,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20650,9 +20650,7 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23491,11 +23489,11 @@
         <v>936.8761377320468</v>
       </c>
       <c r="F7" s="24">
-        <f t="shared" ref="F7:F29" si="2">$L$23*(D7-H3)+(1-$L$23)*(F6+G6)</f>
+        <f t="shared" ref="F7:F28" si="2">$L$23*(D7-H3)+(1-$L$23)*(F6+G6)</f>
         <v>709.77343564537955</v>
       </c>
       <c r="G7" s="24">
-        <f t="shared" ref="G7:G29" si="3">$L$24*(F7-F6)+(1-$L$24)*G6</f>
+        <f t="shared" ref="G7:G28" si="3">$L$24*(F7-F6)+(1-$L$24)*G6</f>
         <v>15.33536677935615</v>
       </c>
       <c r="H7" s="25">
@@ -25087,7 +25085,9 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25644,7 +25644,9 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26205,7 +26207,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26778,7 +26780,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27353,7 +27355,9 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27949,7 +27953,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
